--- a/flows/SHYG_fund_flow_data.xlsx
+++ b/flows/SHYG_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2616"/>
+  <dimension ref="A1:B2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26595,6 +26595,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2617" t="n">
+        <v>16.91024</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2618" t="n">
+        <v>29.63317</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2620" t="n">
+        <v>21.09185</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2625" t="n">
+        <v>21.15725</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2627" t="n">
+        <v>12.70608</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2628" t="n">
+        <v>33.7968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
